--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-13T20:52:23+00:00</t>
+    <t>2022-07-15T14:52:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-15T14:52:55+00:00</t>
+    <t>2022-07-17T13:46:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -251,7 +251,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}vp-vaccination-dose-extension-only-one-kind-invariant:null {extension('singleDose').exists() != extension('repeatingDose').exists()}</t>
+ext-1:Must have either extensions or value[x], not both {extension.exists() != value.exists()}vp-vaccination-dose-extension-only-one-kind-invariant:A vaccination dose can either be a single dose or a repeating dose. {extension('singleDose').exists() != extension('repeatingDose').exists()}</t>
   </si>
   <si>
     <t>Extension.id</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T13:46:32+00:00</t>
+    <t>2022-07-17T16:09:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:09:40+00:00</t>
+    <t>2022-07-17T16:31:22+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T16:31:22+00:00</t>
+    <t>2022-07-17T19:03:56+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-07-17T19:03:56+00:00</t>
+    <t>2022-08-04T11:06:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T11:06:48+00:00</t>
+    <t>2022-08-04T13:09:21+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T13:09:21+00:00</t>
+    <t>2022-08-04T16:22:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T16:22:49+00:00</t>
+    <t>2022-08-04T21:23:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:23:28+00:00</t>
+    <t>2022-08-04T21:39:40+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T21:39:40+00:00</t>
+    <t>2022-08-04T22:05:52+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:05:52+00:00</t>
+    <t>2022-08-04T22:26:29+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:26:29+00:00</t>
+    <t>2022-08-04T22:36:48+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:36:48+00:00</t>
+    <t>2022-08-04T22:42:55+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-04T22:42:55+00:00</t>
+    <t>2022-08-10T21:41:07+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-vp-vaccination-dose-extension.xlsx
+++ b/StructureDefinition-vp-vaccination-dose-extension.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-08-10T21:41:07+00:00</t>
+    <t>2022-08-11T05:51:10+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
